--- a/data/trans_dic/P05B_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P05B_R-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.05368575177676786</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.002245837008151103</v>
+        <v>0.002245837008151104</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.01209858144993427</v>
@@ -708,35 +708,35 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.00876296368300352</v>
+        <v>0.009070064717613057</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0100911941240645</v>
+        <v>0.008887431154975634</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02914850028643028</v>
+        <v>0.02979102926424984</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.00381964064479269</v>
+        <v>0.003917563105369249</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01561327003863436</v>
+        <v>0.01801062752007269</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02625245082613224</v>
+        <v>0.02763530669429321</v>
       </c>
       <c r="J5" s="5" t="inlineStr"/>
       <c r="K5" s="5" t="n">
-        <v>0.008564702213126376</v>
+        <v>0.007933761783208386</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01703535531438602</v>
+        <v>0.01647893236031614</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.03414397370609003</v>
+        <v>0.03295723823899087</v>
       </c>
       <c r="N5" s="5" t="n">
         <v>0</v>
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05424416181503312</v>
+        <v>0.06257426385959215</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05200756928826614</v>
+        <v>0.05139921459097797</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.08811184200674624</v>
+        <v>0.0882467565973625</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.01134920346853937</v>
+        <v>0.01262455077506308</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.02900720823698212</v>
+        <v>0.03637599571203057</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.0602699544092445</v>
+        <v>0.06235412424495053</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.07815229154773319</v>
+        <v>0.08060774000498042</v>
       </c>
       <c r="J6" s="5" t="inlineStr"/>
       <c r="K6" s="5" t="n">
-        <v>0.03447086218507191</v>
+        <v>0.03346371099362887</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.04760053638869015</v>
+        <v>0.04628600286325423</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.07135473849404371</v>
+        <v>0.07162576745706217</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.006569580404771423</v>
+        <v>0.006220073196993357</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02129649837495894</v>
+        <v>0.02196888728576676</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03046610830409774</v>
+        <v>0.03178401216641713</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01413720856330953</v>
+        <v>0.01439493264165942</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.002436079894231484</v>
+        <v>0.002420083056074072</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03668335763193074</v>
+        <v>0.03840904742791394</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02525186570007493</v>
+        <v>0.02399732825991874</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03190994137594795</v>
+        <v>0.03185055024726971</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.002468283700771488</v>
+        <v>0.002451030556323958</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.03446691370124652</v>
+        <v>0.03389583476178547</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.03236277452049868</v>
+        <v>0.0323425093826011</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02631840590045691</v>
+        <v>0.02651833781169215</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.003658118284705765</v>
+        <v>0.003806938817699963</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05768508846710638</v>
+        <v>0.05793938741720769</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0727327242450435</v>
+        <v>0.07576543745585598</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04430362168890557</v>
+        <v>0.04463313924454983</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02386154026785728</v>
+        <v>0.02391013379861009</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.07784091844794067</v>
+        <v>0.07895986849543518</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.0607432132976466</v>
+        <v>0.06119113313478459</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.07145282800601883</v>
+        <v>0.07188100992248433</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.01477758114921288</v>
+        <v>0.0146183410475705</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.06145311477403894</v>
+        <v>0.06151959602067079</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.06070073296680839</v>
+        <v>0.05914042722370334</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.05081852950619491</v>
+        <v>0.05128535931225318</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.01548026962677762</v>
+        <v>0.01513344867336341</v>
       </c>
     </row>
     <row r="10">
@@ -953,7 +953,7 @@
         <v>0.006347929732292214</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.03026087815418836</v>
+        <v>0.03026087815418837</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.05090616638571483</v>
@@ -976,17 +976,17 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01980112697756882</v>
+        <v>0.01849357610735965</v>
       </c>
       <c r="D11" s="5" t="inlineStr"/>
       <c r="E11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02158961374867635</v>
+        <v>0.01903444132950526</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04113617526277651</v>
+        <v>0.04016247882620246</v>
       </c>
       <c r="H11" s="5" t="n">
         <v>0</v>
@@ -995,19 +995,19 @@
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01692430193221005</v>
+        <v>0.01658594459094767</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03584992757211857</v>
+        <v>0.03585742218303138</v>
       </c>
       <c r="L11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.001377081424415963</v>
+        <v>0.001374181925174172</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.02210569906537088</v>
+        <v>0.02253167173247474</v>
       </c>
     </row>
     <row r="12">
@@ -1018,38 +1018,38 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05997413641872418</v>
+        <v>0.06279048850521872</v>
       </c>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="n">
-        <v>0.02718464356623731</v>
+        <v>0.03360673104357786</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.06886887723466525</v>
+        <v>0.0645323846741454</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1013314553085492</v>
+        <v>0.09363531322902524</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.01478466879732714</v>
+        <v>0.01652314594376689</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02224290212818414</v>
+        <v>0.02359528182045609</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.05545049944288471</v>
+        <v>0.05143372293849404</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.06988839527243812</v>
+        <v>0.06971747414091134</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.00692383480751543</v>
+        <v>0.006898788701247469</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.0153326310509731</v>
+        <v>0.01692487524451405</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.05063358664792716</v>
+        <v>0.05285848456856675</v>
       </c>
     </row>
     <row r="13">
@@ -1085,7 +1085,7 @@
         <v>0.03116786472394268</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.02363636983875886</v>
+        <v>0.02363636983875885</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.02762992420338062</v>
@@ -1097,7 +1097,7 @@
         <v>0.02190278282009379</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.02421589915490625</v>
+        <v>0.02421589915490624</v>
       </c>
     </row>
     <row r="14">
@@ -1108,40 +1108,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01445820467254023</v>
+        <v>0.01315264084279137</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.00523810407386687</v>
+        <v>0.005355728808393958</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.004795642241622223</v>
+        <v>0.004326177211959098</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.0127457275047576</v>
+        <v>0.01303783275786877</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01457048087344689</v>
+        <v>0.01441258594615585</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.009760461946499105</v>
+        <v>0.009603580730827229</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01560577548510031</v>
+        <v>0.01564662567500637</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01363748135203341</v>
+        <v>0.01405120148033174</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01748743086236131</v>
+        <v>0.01717935411331258</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.009476984885771991</v>
+        <v>0.009268542037823889</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01363041180460411</v>
+        <v>0.01292448357088068</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.01607468687806482</v>
+        <v>0.01647361204882991</v>
       </c>
     </row>
     <row r="15">
@@ -1152,40 +1152,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05380274235059306</v>
+        <v>0.05041374952397773</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03114233127827914</v>
+        <v>0.03132857926691427</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02724327702418</v>
+        <v>0.02519408133094216</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.05377308506800758</v>
+        <v>0.05089393286786344</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04814730432454372</v>
+        <v>0.04872157286245529</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.03882475696466076</v>
+        <v>0.03951449164901592</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.05465573498202822</v>
+        <v>0.0577577503001574</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.03517431088943058</v>
+        <v>0.03586396405780764</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04183596383515862</v>
+        <v>0.04244126100212049</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.0289063365818103</v>
+        <v>0.02921395282436134</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.03772761895514713</v>
+        <v>0.03614766448686462</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.03663601045086627</v>
+        <v>0.03646227143786356</v>
       </c>
     </row>
     <row r="16">
@@ -1233,7 +1233,7 @@
         <v>0.006757961356942311</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.002431119419344853</v>
+        <v>0.002431119419344852</v>
       </c>
     </row>
     <row r="17">
@@ -1244,35 +1244,35 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.04391093889531123</v>
+        <v>0.04464881315645532</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.008773436227573412</v>
+        <v>0.008744820157266978</v>
       </c>
       <c r="E17" s="5" t="inlineStr"/>
       <c r="F17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.06392985714938106</v>
+        <v>0.06241370864724584</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.009124780298076585</v>
+        <v>0.01266634753376725</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.004029251849585636</v>
+        <v>0.003973944831860674</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.05935712697557445</v>
+        <v>0.06205535420966612</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.01383362176780885</v>
+        <v>0.01276871864494071</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.002053578698925566</v>
+        <v>0.002057529904377307</v>
       </c>
       <c r="N17" s="5" t="n">
         <v>0</v>
@@ -1286,38 +1286,38 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1164621406227385</v>
+        <v>0.1204460440952079</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05009105120835339</v>
+        <v>0.05086012350158552</v>
       </c>
       <c r="E18" s="5" t="inlineStr"/>
       <c r="F18" s="5" t="n">
-        <v>0.01583614125459029</v>
+        <v>0.01730312766348159</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.145379064132643</v>
+        <v>0.1474267271954664</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.06246694313613003</v>
+        <v>0.06208078806437908</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.03627907506873702</v>
+        <v>0.03457912149019227</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.007415504401449943</v>
+        <v>0.007651855698595897</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1154355537598484</v>
+        <v>0.1146343949628491</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.04660245150748602</v>
+        <v>0.04544754211077971</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.01894932438506897</v>
+        <v>0.01858858633071355</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.009221501753899181</v>
+        <v>0.009025098352926503</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.003735987147483847</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.009162457559038516</v>
+        <v>0.009162457559038512</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.01483235592689447</v>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.00322316209540526</v>
+        <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.007551804725237649</v>
+        <v>0.006687011203042762</v>
       </c>
       <c r="H20" s="5" t="n">
         <v>0</v>
@@ -1397,19 +1397,19 @@
         <v>0</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.003010597154829177</v>
+        <v>0.003220525229573546</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.006944571021745237</v>
+        <v>0.007272254945367851</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.001727738145594888</v>
+        <v>0.001727077481386897</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.003212343360531679</v>
+        <v>0.003455291656502801</v>
       </c>
     </row>
     <row r="21">
@@ -1420,40 +1420,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.03248318025308633</v>
+        <v>0.02972312062976641</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.02540878252088257</v>
+        <v>0.02280978262938515</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.01458236598607071</v>
+        <v>0.01779953052829945</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.02617486255721013</v>
+        <v>0.02585427485299303</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.04300444774126921</v>
+        <v>0.04077656835136952</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.02292400440365711</v>
+        <v>0.01967205253303124</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.0215332356647786</v>
+        <v>0.01723702089922047</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.02262206928273309</v>
+        <v>0.02286182686875709</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.02753326401475386</v>
+        <v>0.02875716952364875</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.01621029869178288</v>
+        <v>0.01640894473072765</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.01224605474102507</v>
+        <v>0.01424185044419176</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.01856256413609681</v>
+        <v>0.01731861216654698</v>
       </c>
     </row>
     <row r="22">
@@ -1477,7 +1477,7 @@
         <v>0.0123862349419372</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.007025278719363865</v>
+        <v>0.007025278719363863</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.06468977292603036</v>
@@ -1512,40 +1512,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01238692861762687</v>
+        <v>0.01229763826451545</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.002790856258330982</v>
+        <v>0.002773760257997865</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.004888370331133017</v>
+        <v>0.004686795752292919</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.001996107642021706</v>
+        <v>0.00266875490060148</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.04648203750128098</v>
+        <v>0.04604698189540565</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.002648051274356477</v>
+        <v>0.001497132404685926</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.00885009060249901</v>
+        <v>0.009158220206140582</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.01211231848497393</v>
+        <v>0.01183893834420062</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.03286591896177116</v>
+        <v>0.03352308815583436</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.003637484630392149</v>
+        <v>0.003696292089193243</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.00882421044835564</v>
+        <v>0.008890650799306088</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.008659410538495413</v>
+        <v>0.00859656208423633</v>
       </c>
     </row>
     <row r="24">
@@ -1556,40 +1556,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.03583898594321649</v>
+        <v>0.03653042947319639</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.01605366181465554</v>
+        <v>0.01662882620878046</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.02651510976827139</v>
+        <v>0.02474718512781656</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.01476119985424265</v>
+        <v>0.01568798313410406</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.08745006138558627</v>
+        <v>0.08650994057750364</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.02168695067519597</v>
+        <v>0.02037147723994661</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.02874281311713606</v>
+        <v>0.03077708683319879</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.03156690676983648</v>
+        <v>0.03065705516273962</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.05730655522449819</v>
+        <v>0.05716177145520546</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.01452198160042093</v>
+        <v>0.01456604961314413</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.02302858631429642</v>
+        <v>0.02253525275410458</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.02081945577548606</v>
+        <v>0.02003309799166248</v>
       </c>
     </row>
     <row r="25">
@@ -1648,40 +1648,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.01491820240692635</v>
+        <v>0.01578203634942488</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.004905701303685722</v>
+        <v>0.003914486766839072</v>
       </c>
       <c r="E26" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.001420522621699096</v>
+        <v>0.001433137785812544</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.02466352262934801</v>
+        <v>0.02370221614443565</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.001460291221891922</v>
+        <v>0.002518463394611784</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.00286454778284302</v>
+        <v>0.002890110365615985</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.002885420290660416</v>
+        <v>0.002893596695950239</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.02298379608462074</v>
+        <v>0.02298146086046877</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.004468746619726708</v>
+        <v>0.004580853158105034</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.002490823585068583</v>
+        <v>0.002654073949744958</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.00289413284227466</v>
+        <v>0.003023460572494936</v>
       </c>
     </row>
     <row r="27">
@@ -1692,40 +1692,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.04092939449392047</v>
+        <v>0.04201392089134768</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.02157412138126617</v>
+        <v>0.02099614341046912</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.009398386291909396</v>
+        <v>0.008505518527313176</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.01143476372796478</v>
+        <v>0.0123419203007873</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.05174468517133029</v>
+        <v>0.05099256838266646</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.01354326986406626</v>
+        <v>0.01447194506648188</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.0172125212169734</v>
+        <v>0.01767721032534367</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.01290216516250472</v>
+        <v>0.01362475109483555</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.04186733258438158</v>
+        <v>0.04090051956452218</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.01492830536544502</v>
+        <v>0.01479643523488638</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.009929686812957172</v>
+        <v>0.01092261103029329</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.01016261744167579</v>
+        <v>0.01014460753567143</v>
       </c>
     </row>
     <row r="28">
@@ -1784,40 +1784,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.02386214542493052</v>
+        <v>0.02390753992748186</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.01233855453768955</v>
+        <v>0.01243732603169585</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.009987750208644876</v>
+        <v>0.009791737424753951</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.007438672027563699</v>
+        <v>0.007452154428965952</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.03971732864200321</v>
+        <v>0.04007718174581351</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.01268292336441369</v>
+        <v>0.01199103059714544</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.01629264890369675</v>
+        <v>0.01666361291740618</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.01009411047760168</v>
+        <v>0.009982128828630166</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.0340387241217887</v>
+        <v>0.03386111568779577</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.0134025999914357</v>
+        <v>0.0135940503269317</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.01470838475738285</v>
+        <v>0.01457903737601208</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.009473406639879391</v>
+        <v>0.00964868309739474</v>
       </c>
     </row>
     <row r="30">
@@ -1828,40 +1828,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.03560572440267813</v>
+        <v>0.03636472077989468</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.02159212489357603</v>
+        <v>0.02128966962974415</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.01785403474650687</v>
+        <v>0.0184263566666483</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.01498528482582845</v>
+        <v>0.01488839208021984</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.05507797816365619</v>
+        <v>0.05479194402787485</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.02129048302924894</v>
+        <v>0.0210389663153802</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.02652837696665094</v>
+        <v>0.02684812667828664</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.01640828122089821</v>
+        <v>0.01652964457744735</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.04332391961276835</v>
+        <v>0.04307990637625513</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.01985962742272847</v>
+        <v>0.01969453237667335</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.02144383690537686</v>
+        <v>0.02098125803704046</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.01446059456256115</v>
+        <v>0.01430647763469524</v>
       </c>
     </row>
     <row r="31">
@@ -2136,35 +2136,35 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2392</v>
+        <v>2476</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2934</v>
+        <v>2584</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>8534</v>
+        <v>8722</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>996</v>
+        <v>1022</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>4383</v>
+        <v>5056</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>7579</v>
+        <v>7978</v>
       </c>
       <c r="J6" s="6" t="inlineStr"/>
       <c r="K6" s="6" t="n">
-        <v>4572</v>
+        <v>4235</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>9736</v>
+        <v>9418</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>19854</v>
+        <v>19164</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0</v>
@@ -2178,38 +2178,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>14809</v>
+        <v>17083</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>15123</v>
+        <v>14946</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>25796</v>
+        <v>25836</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>3619</v>
+        <v>4025</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>7566</v>
+        <v>9488</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>16920</v>
+        <v>17505</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>22563</v>
+        <v>23272</v>
       </c>
       <c r="J7" s="6" t="inlineStr"/>
       <c r="K7" s="6" t="n">
-        <v>18402</v>
+        <v>17865</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>27205</v>
+        <v>26454</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>41491</v>
+        <v>41648</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>4171</v>
+        <v>3949</v>
       </c>
     </row>
     <row r="8">
@@ -2312,40 +2312,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>10501</v>
+        <v>10832</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>15401</v>
+        <v>16068</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>7105</v>
+        <v>7235</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1286</v>
+        <v>1277</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>18487</v>
+        <v>19356</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>13172</v>
+        <v>12518</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>16692</v>
+        <v>16661</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1349</v>
+        <v>1339</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>34364</v>
+        <v>33795</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>33241</v>
+        <v>33221</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>26994</v>
+        <v>27199</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>3930</v>
+        <v>4090</v>
       </c>
     </row>
     <row r="11">
@@ -2356,40 +2356,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>28443</v>
+        <v>28568</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>36768</v>
+        <v>38301</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>22266</v>
+        <v>22431</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>12595</v>
+        <v>12620</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>39228</v>
+        <v>39792</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>31685</v>
+        <v>31919</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>37376</v>
+        <v>37600</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>8076</v>
+        <v>7989</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>61270</v>
+        <v>61337</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>62349</v>
+        <v>60746</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>52122</v>
+        <v>52601</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>16631</v>
+        <v>16258</v>
       </c>
     </row>
     <row r="12">
@@ -2492,17 +2492,17 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>6296</v>
+        <v>5880</v>
       </c>
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>6750</v>
+        <v>5951</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>13798</v>
+        <v>13471</v>
       </c>
       <c r="H14" s="6" t="n">
         <v>0</v>
@@ -2511,19 +2511,19 @@
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>6004</v>
+        <v>5884</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>23423</v>
+        <v>23428</v>
       </c>
       <c r="L14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>14753</v>
+        <v>15037</v>
       </c>
     </row>
     <row r="15">
@@ -2534,38 +2534,38 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>19069</v>
+        <v>19964</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>8637</v>
+        <v>10677</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>21532</v>
+        <v>20176</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>33988</v>
+        <v>31406</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>5042</v>
+        <v>5635</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>7480</v>
+        <v>7935</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>19670</v>
+        <v>18245</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>45662</v>
+        <v>45551</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>4605</v>
+        <v>4588</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>10028</v>
+        <v>11069</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>33792</v>
+        <v>35277</v>
       </c>
     </row>
     <row r="16">
@@ -2668,40 +2668,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>5186</v>
+        <v>4717</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1959</v>
+        <v>2003</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1765</v>
+        <v>1592</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>4747</v>
+        <v>4856</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>5412</v>
+        <v>5354</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>3787</v>
+        <v>3726</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>5934</v>
+        <v>5949</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>5713</v>
+        <v>5887</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>12768</v>
+        <v>12543</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>7221</v>
+        <v>7062</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>10198</v>
+        <v>9670</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>12722</v>
+        <v>13037</v>
       </c>
     </row>
     <row r="19">
@@ -2712,40 +2712,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>19297</v>
+        <v>18082</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>11647</v>
+        <v>11716</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>10025</v>
+        <v>9271</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>20028</v>
+        <v>18955</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>17885</v>
+        <v>18098</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>15064</v>
+        <v>15331</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>20781</v>
+        <v>21960</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>14736</v>
+        <v>15025</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>30546</v>
+        <v>30988</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>22026</v>
+        <v>22260</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>28228</v>
+        <v>27046</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>28994</v>
+        <v>28856</v>
       </c>
     </row>
     <row r="20">
@@ -2848,35 +2848,35 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>8927</v>
+        <v>9077</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1865</v>
+        <v>1859</v>
       </c>
       <c r="E22" s="6" t="inlineStr"/>
       <c r="F22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>13172</v>
+        <v>12860</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2004</v>
+        <v>2781</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>881</v>
+        <v>869</v>
       </c>
       <c r="J22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>24298</v>
+        <v>25402</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>5979</v>
+        <v>5519</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0</v>
@@ -2890,38 +2890,38 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>23678</v>
+        <v>24488</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>10650</v>
+        <v>10814</v>
       </c>
       <c r="E23" s="6" t="inlineStr"/>
       <c r="F23" s="6" t="n">
-        <v>3257</v>
+        <v>3559</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>29954</v>
+        <v>30376</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>13717</v>
+        <v>13632</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>7930</v>
+        <v>7559</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1694</v>
+        <v>1748</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>47254</v>
+        <v>46926</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>20142</v>
+        <v>19643</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>8145</v>
+        <v>7990</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>4003</v>
+        <v>3918</v>
       </c>
     </row>
     <row r="24">
@@ -3024,7 +3024,7 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>873</v>
+        <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
         <v>0</v>
@@ -3036,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>2100</v>
+        <v>1860</v>
       </c>
       <c r="H26" s="6" t="n">
         <v>0</v>
@@ -3045,10 +3045,10 @@
         <v>0</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>794</v>
+        <v>849</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>3812</v>
+        <v>3992</v>
       </c>
       <c r="L26" s="6" t="n">
         <v>955</v>
@@ -3057,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>1717</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="27">
@@ -3068,40 +3068,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>8797</v>
+        <v>8049</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>6962</v>
+        <v>6249</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>3837</v>
+        <v>4683</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>7086</v>
+        <v>6999</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>11961</v>
+        <v>11342</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>6396</v>
+        <v>5488</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>5835</v>
+        <v>4671</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>5967</v>
+        <v>6030</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>15115</v>
+        <v>15786</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>8964</v>
+        <v>9074</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>6541</v>
+        <v>7607</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>9921</v>
+        <v>9256</v>
       </c>
     </row>
     <row r="28">
@@ -3204,40 +3204,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>7608</v>
+        <v>7553</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1844</v>
+        <v>1832</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>3186</v>
+        <v>3054</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>1434</v>
+        <v>1918</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>29666</v>
+        <v>29388</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>1835</v>
+        <v>1037</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>6075</v>
+        <v>6287</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>9310</v>
+        <v>9100</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>41162</v>
+        <v>41985</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>4923</v>
+        <v>5003</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>11808</v>
+        <v>11897</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>12878</v>
+        <v>12784</v>
       </c>
     </row>
     <row r="31">
@@ -3248,40 +3248,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>22013</v>
+        <v>22437</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>10605</v>
+        <v>10985</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>17279</v>
+        <v>16127</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>10606</v>
+        <v>11272</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>55812</v>
+        <v>55212</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>15025</v>
+        <v>14114</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>19731</v>
+        <v>21127</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>24264</v>
+        <v>23564</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>71772</v>
+        <v>71591</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>19654</v>
+        <v>19714</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>30815</v>
+        <v>30155</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>30962</v>
+        <v>29792</v>
       </c>
     </row>
     <row r="32">
@@ -3384,40 +3384,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>11060</v>
+        <v>11701</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>3784</v>
+        <v>3019</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>1134</v>
+        <v>1144</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>19324</v>
+        <v>18571</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>1196</v>
+        <v>2062</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>2367</v>
+        <v>2388</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>2397</v>
+        <v>2403</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>35048</v>
+        <v>35045</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>7106</v>
+        <v>7284</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>3997</v>
+        <v>4259</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>4714</v>
+        <v>4924</v>
       </c>
     </row>
     <row r="35">
@@ -3428,40 +3428,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>30345</v>
+        <v>31149</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>16640</v>
+        <v>16194</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>7317</v>
+        <v>6622</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>9126</v>
+        <v>9850</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>40543</v>
+        <v>39953</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>11089</v>
+        <v>11850</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>14220</v>
+        <v>14604</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>10717</v>
+        <v>11317</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>63844</v>
+        <v>62369</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>23737</v>
+        <v>23527</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>15935</v>
+        <v>17528</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>16552</v>
+        <v>16522</v>
       </c>
     </row>
     <row r="36">
@@ -3564,40 +3564,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>78087</v>
+        <v>78236</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>42109</v>
+        <v>42446</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>33815</v>
+        <v>33151</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>26219</v>
+        <v>26267</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>134148</v>
+        <v>135364</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>44918</v>
+        <v>42467</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>57521</v>
+        <v>58831</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>37628</v>
+        <v>37210</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>226357</v>
+        <v>225176</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>93207</v>
+        <v>94538</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>101725</v>
+        <v>100831</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>68705</v>
+        <v>69976</v>
       </c>
     </row>
     <row r="39">
@@ -3608,40 +3608,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>116517</v>
+        <v>119001</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>73690</v>
+        <v>72657</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>60447</v>
+        <v>62385</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>52819</v>
+        <v>52477</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>186030</v>
+        <v>185064</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>75402</v>
+        <v>74511</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>93659</v>
+        <v>94788</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>61165</v>
+        <v>61618</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>288104</v>
+        <v>286481</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>138112</v>
+        <v>136963</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>148309</v>
+        <v>145109</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>104874</v>
+        <v>103757</v>
       </c>
     </row>
     <row r="40">
